--- a/Files/Vaccine_April 6, 2010.xlsx
+++ b/Files/Vaccine_April 6, 2010.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="238">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Kinrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose T-L syringes </t>
+    <t xml:space="preserve">10 pack - 1 dose vials </t>
   </si>
   <si>
     <t xml:space="preserve">$32.75</t>
@@ -107,6 +107,9 @@
     <t xml:space="preserve">$48.00</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose T-L syringes </t>
+  </si>
+  <si>
     <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
@@ -149,7 +152,7 @@
     <t xml:space="preserve">$24.709</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B </t>
+    <t xml:space="preserve">Hepatitis B-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -179,12 +182,12 @@
     <t xml:space="preserve">Havrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 10 pack - 1 dose T-L syringes. No Needle </t>
-  </si>
-  <si>
     <t xml:space="preserve">$28.74</t>
   </si>
   <si>
+    <t xml:space="preserve">10 pack - 1 dose T-L syringes. No Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
@@ -203,7 +206,7 @@
     <t xml:space="preserve">$89.85</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis BPediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
@@ -218,7 +221,7 @@
     <t xml:space="preserve">10 pack - 1 dose T-L syringes, No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
@@ -329,7 +332,7 @@
     <t xml:space="preserve">$48.31</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal13-valent  (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -410,15 +413,15 @@
     <t xml:space="preserve">BOOSTRIX</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose TL syringes, No Needle </t>
-  </si>
-  <si>
     <t xml:space="preserve">$28.54</t>
   </si>
   <si>
     <t xml:space="preserve">$37.55</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose TL syringes, No Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">ADACEL</t>
   </si>
   <si>
@@ -507,9 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">$42.581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetanus  DiphtheriaToxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tetanus  Diphtheria Toxoids
@@ -559,7 +559,7 @@
     <t xml:space="preserve">Zostavax</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vial 1 pack-single dose 0.65mL vials </t>
+    <t xml:space="preserve">10 pack - 1 dose vial </t>
   </si>
   <si>
     <t xml:space="preserve">$105.943</t>
@@ -568,13 +568,16 @@
     <t xml:space="preserve">$153.93</t>
   </si>
   <si>
+    <t xml:space="preserve">1 pack-single dose 0.65mL vials </t>
+  </si>
+  <si>
     <t xml:space="preserve">$116.70</t>
   </si>
   <si>
     <t xml:space="preserve">$161.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+    <t xml:space="preserve">Influenza   (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -586,7 +589,7 @@
     <t xml:space="preserve">$11.17</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 6-35 months)</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone
@@ -603,19 +606,19 @@
     <t xml:space="preserve">$13.16</t>
   </si>
   <si>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$9.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$12.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No-Preservative</t>
+  </si>
+  <si>
     <t xml:space="preserve">Influenza (Age 36 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$9.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$12.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No-Preservative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influenza(Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluarix
@@ -631,7 +634,7 @@
     <t xml:space="preserve">$10.98</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza   (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluvirin</t>
@@ -652,7 +655,7 @@
     <t xml:space="preserve">$12.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza Live, Intranasal (Age 2-49 years)</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
     <t xml:space="preserve">FluMist
@@ -711,7 +714,7 @@
   </si>
   <si>
     <t xml:space="preserve">Fluvirin
-&amp;gt;Preservative-free</t>
+Preservative-free</t>
   </si>
   <si>
     <t xml:space="preserve">Fluraix
@@ -1055,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -1075,10 +1078,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1087,10 +1090,10 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1">
         <v>40633</v>
@@ -1104,22 +1107,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1">
         <v>40633</v>
@@ -1133,22 +1136,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1">
         <v>40633</v>
@@ -1162,10 +1165,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1174,16 +1177,16 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1">
         <v>40633</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -1191,10 +1194,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1203,16 +1206,16 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1">
         <v>40633</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -1220,16 +1223,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1249,16 +1252,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1278,10 +1281,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1290,10 +1293,10 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="1">
         <v>40633</v>
@@ -1307,22 +1310,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1">
         <v>40633</v>
@@ -1336,10 +1339,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1348,10 +1351,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G17" s="1">
         <v>40633</v>
@@ -1365,22 +1368,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
         <v>66</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
       </c>
       <c r="G18" s="1">
         <v>40633</v>
@@ -1394,10 +1397,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1406,16 +1409,16 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19" s="1">
         <v>40633</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1423,10 +1426,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1435,16 +1438,16 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G20" s="1">
         <v>40633</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -1452,22 +1455,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" s="1">
         <v>40633</v>
@@ -1481,10 +1484,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1493,10 +1496,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22" s="1">
         <v>40633</v>
@@ -1510,10 +1513,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1522,16 +1525,16 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G23" s="1">
         <v>40633</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1539,10 +1542,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1551,10 +1554,10 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G24" s="1">
         <v>40633</v>
@@ -1568,22 +1571,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" t="s">
         <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" t="s">
-        <v>87</v>
       </c>
       <c r="G25" s="1">
         <v>40633</v>
@@ -1597,10 +1600,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -1609,16 +1612,16 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G26" s="1">
         <v>40633</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -1626,22 +1629,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G27" s="1">
         <v>40633</v>
@@ -1655,28 +1658,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G28" s="1">
         <v>40633</v>
       </c>
       <c r="H28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1684,10 +1687,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1696,16 +1699,16 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G29" s="1">
         <v>40633</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1713,28 +1716,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G30" s="1">
         <v>40633</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1742,10 +1745,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -1754,16 +1757,16 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G31" s="1">
         <v>40633</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -1771,28 +1774,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G32" s="1">
         <v>40633</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -1800,10 +1803,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1812,10 +1815,10 @@
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G33" s="1">
         <v>40633</v>
@@ -1829,22 +1832,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G34" s="1">
         <v>40633</v>
@@ -1858,10 +1861,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1870,10 +1873,10 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G35" s="1">
         <v>40633</v>
@@ -1887,10 +1890,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1899,16 +1902,16 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1">
+        <v>40633</v>
+      </c>
+      <c r="H36" t="s">
         <v>128</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="1">
-        <v>40633</v>
-      </c>
-      <c r="H36" t="s">
-        <v>127</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
@@ -1916,16 +1919,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
         <v>132</v>
@@ -1945,16 +1948,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
         <v>132</v>
@@ -1974,22 +1977,22 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G39" s="1">
         <v>40633</v>
@@ -2003,22 +2006,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" t="s">
         <v>138</v>
-      </c>
-      <c r="E40" t="s">
-        <v>136</v>
-      </c>
-      <c r="F40" t="s">
-        <v>137</v>
       </c>
       <c r="G40" s="1">
         <v>40633</v>
@@ -2032,10 +2035,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -2044,16 +2047,16 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G41" s="1">
         <v>40633</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -2106,10 +2109,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2118,10 +2121,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G2" s="1">
         <v>40359</v>
@@ -2135,22 +2138,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G3" s="1">
         <v>40359</v>
@@ -2164,10 +2167,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2176,10 +2179,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1">
         <v>40359</v>
@@ -2193,22 +2196,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" s="1">
         <v>40359</v>
@@ -2222,10 +2225,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2234,10 +2237,10 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G6" s="1">
         <v>40359</v>
@@ -2251,22 +2254,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G7" s="1">
         <v>40359</v>
@@ -2280,10 +2283,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -2292,16 +2295,16 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G8" s="1">
         <v>40359</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -2309,10 +2312,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -2321,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1">
         <v>40359</v>
@@ -2338,22 +2341,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1">
         <v>40359</v>
@@ -2367,10 +2370,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2379,16 +2382,16 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G11" s="1">
         <v>40359</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -2396,28 +2399,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G12" s="1">
         <v>40359</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -2425,28 +2428,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G13" s="1">
         <v>40359</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -2454,7 +2457,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
         <v>165</v>
@@ -2483,7 +2486,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
         <v>168</v>
@@ -2504,7 +2507,7 @@
         <v>40359</v>
       </c>
       <c r="H15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -2512,7 +2515,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
         <v>169</v>
@@ -2527,7 +2530,7 @@
         <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G16" s="1">
         <v>40359</v>
@@ -2541,7 +2544,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
         <v>169</v>
@@ -2556,7 +2559,7 @@
         <v>170</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G17" s="1">
         <v>40359</v>
@@ -2570,7 +2573,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
         <v>172</v>
@@ -2599,7 +2602,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
         <v>172</v>
@@ -2631,7 +2634,7 @@
         <v>176</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -2643,13 +2646,13 @@
         <v>177</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="1">
         <v>40359</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -2678,7 +2681,7 @@
         <v>40359</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -2695,19 +2698,19 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G22" s="1">
         <v>40359</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -2760,22 +2763,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G2" s="1">
         <v>40602</v>
@@ -2789,22 +2792,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G3" s="1">
         <v>40602</v>
@@ -2818,22 +2821,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G4" s="1">
         <v>40602</v>
@@ -2847,10 +2850,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2859,10 +2862,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G5" s="1">
         <v>40602</v>
@@ -2876,22 +2879,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G6" s="1">
         <v>40602</v>
@@ -2905,28 +2908,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G7" s="1">
         <v>40602</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -2934,19 +2937,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -2955,7 +2958,7 @@
         <v>40602</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -2963,28 +2966,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G9" s="1">
         <v>40602</v>
       </c>
       <c r="H9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2992,28 +2995,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G10" s="1">
         <v>40602</v>
       </c>
       <c r="H10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -3021,28 +3024,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1">
         <v>40602</v>
       </c>
       <c r="H11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -3050,28 +3053,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G12" s="1">
         <v>40602</v>
       </c>
       <c r="H12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -3124,22 +3127,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G2" s="1">
         <v>40602</v>
@@ -3153,22 +3156,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G3" s="1">
         <v>40602</v>
@@ -3182,10 +3185,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -3194,10 +3197,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G4" s="1">
         <v>40602</v>
@@ -3211,19 +3214,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -3232,7 +3235,7 @@
         <v>40602</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -3240,28 +3243,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G6" s="1">
         <v>40602</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -3269,19 +3272,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -3290,7 +3293,7 @@
         <v>40602</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -3298,22 +3301,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G8" s="1">
         <v>40602</v>
@@ -3327,22 +3330,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G9" s="1">
         <v>40602</v>
@@ -3356,28 +3359,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G10" s="1">
         <v>40602</v>
       </c>
       <c r="H10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>

--- a/Files/Vaccine_April 6, 2010.xlsx
+++ b/Files/Vaccine_April 6, 2010.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="237">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -512,9 +512,7 @@
     <t xml:space="preserve">$42.581</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids
-Adsorbed for Adults
-No Preservative</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids Adsorbed for Adults No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">$18.23</t>
@@ -592,9 +590,7 @@
     <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose
-No Preservative</t>
+    <t xml:space="preserve">Fluzone Pediatric dose No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose syringes</t>
@@ -621,8 +617,7 @@
     <t xml:space="preserve">Influenza (Age 36 months and older)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Preservative-Free</t>
+    <t xml:space="preserve">Fluarix Preservative-Free</t>
   </si>
   <si>
     <t xml:space="preserve">5 pack - 1 dose TipLok syringes</t>
@@ -658,8 +653,7 @@
     <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
-    <t xml:space="preserve">FluMist
-No Preservative</t>
+    <t xml:space="preserve">FluMist No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose sprayers</t>
@@ -674,8 +668,7 @@
     <t xml:space="preserve">MedImmune</t>
   </si>
   <si>
-    <t xml:space="preserve">Afluria
-No Preservative</t>
+    <t xml:space="preserve">Afluria No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">$10.75</t>
@@ -684,8 +677,7 @@
     <t xml:space="preserve">$12.25</t>
   </si>
   <si>
-    <t xml:space="preserve">Merck
-(CSL product)</t>
+    <t xml:space="preserve">Merck (CSL product)</t>
   </si>
   <si>
     <t xml:space="preserve">Afluria</t>
@@ -706,19 +698,13 @@
     <t xml:space="preserve">No Preservative</t>
   </si>
   <si>
-    <t xml:space="preserve">Agriflu
-No Preservative</t>
+    <t xml:space="preserve">Agriflu No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">Influenza  </t>
   </si>
   <si>
-    <t xml:space="preserve">Fluvirin
-Preservative-free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluraix
-Preservative-free</t>
+    <t xml:space="preserve">Fluraix Preservative-free</t>
   </si>
   <si>
     <t xml:space="preserve">5 pack - 1 dose syringe</t>
@@ -736,8 +722,7 @@
     <t xml:space="preserve">$7.83</t>
   </si>
   <si>
-    <t xml:space="preserve">Flumist
-No Preservative</t>
+    <t xml:space="preserve">Flumist No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack-1 dose sprayers</t>
@@ -3275,7 +3260,7 @@
         <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -3304,13 +3289,13 @@
         <v>225</v>
       </c>
       <c r="B8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>230</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>231</v>
       </c>
       <c r="E8" t="s">
         <v>202</v>
@@ -3333,19 +3318,19 @@
         <v>228</v>
       </c>
       <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>232</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>233</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>234</v>
-      </c>
-      <c r="F9" t="s">
-        <v>235</v>
       </c>
       <c r="G9" s="1">
         <v>40602</v>
@@ -3362,13 +3347,13 @@
         <v>225</v>
       </c>
       <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>236</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>237</v>
       </c>
       <c r="E10" t="s">
         <v>214</v>
